--- a/data/trans_camb/P57_AC_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.714496199742743</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-25.54747086970348</v>
+        <v>-25.54747086970347</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-8.212465789176548</v>
@@ -655,7 +655,7 @@
         <v>-6.586349963802518</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-29.78496534017524</v>
+        <v>-29.78496534017523</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-7.62294510939453</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.51087423816897</v>
+        <v>-14.42002819783074</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.771692464447958</v>
+        <v>-4.97489724244039</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-32.70291665598067</v>
+        <v>-32.99434523054742</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-14.11100022578887</v>
+        <v>-14.30632499155573</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-12.07810437599229</v>
+        <v>-11.937946992362</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-35.64867333170366</v>
+        <v>-35.92444133768377</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-12.00216773265113</v>
+        <v>-12.39765579759197</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.835769128752431</v>
+        <v>-6.603343505029464</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-32.20835697618378</v>
+        <v>-32.53327129445746</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.1346245689443483</v>
+        <v>-0.6443187331042419</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.833127191857351</v>
+        <v>8.343808759022679</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-17.74134491793119</v>
+        <v>-17.89647647151756</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.591294990925976</v>
+        <v>-2.000020669485978</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.3859571184954796</v>
+        <v>-0.09262064609942121</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-23.43374550203576</v>
+        <v>-23.85909476770783</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-2.537551579733461</v>
+        <v>-2.592345291879811</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.06204005480284</v>
+        <v>1.762664534962272</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-22.20520052593264</v>
+        <v>-23.12636560118028</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.02136219446353798</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.3183151067071868</v>
+        <v>-0.3183151067071867</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.09140147151994173</v>
@@ -760,7 +760,7 @@
         <v>-0.07330345039978875</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.3314947947607156</v>
+        <v>-0.3314947947607155</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.08973966498917776</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1759659544078323</v>
+        <v>-0.1735132000356441</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.05608932786540655</v>
+        <v>-0.05989511565056977</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3952739567311923</v>
+        <v>-0.3992467398290543</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1537484473946515</v>
+        <v>-0.1547667159939755</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1313791156124338</v>
+        <v>-0.1302551544471179</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.387999165765006</v>
+        <v>-0.3925490824585371</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1390467570028416</v>
+        <v>-0.1420259046880917</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.079094029133847</v>
+        <v>-0.07603440584994804</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.373062721440015</v>
+        <v>-0.3755222219191441</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.00275008274639596</v>
+        <v>-0.008608424078154158</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1155426280395744</v>
+        <v>0.1086098730660058</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.2316369529452985</v>
+        <v>-0.2309307464055405</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.01859253014522157</v>
+        <v>-0.02183501457227827</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.005221047511254556</v>
+        <v>-0.001599416286351281</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2673116397923798</v>
+        <v>-0.2726591794964171</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.03063558899322802</v>
+        <v>-0.0308765768280611</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.0250775184574649</v>
+        <v>0.02143531500432392</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.2691237294964272</v>
+        <v>-0.2775468430969938</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>21.29757702569781</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.643489198551487</v>
+        <v>4.643489198551476</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-9.077326939106555</v>
@@ -878,7 +878,7 @@
         <v>17.78976965182834</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-2.11088761815581</v>
+        <v>-2.110887618155821</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.590876117364081</v>
+        <v>-9.613419352525254</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>15.5155345740648</v>
+        <v>15.47049889062851</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.326008518156456</v>
+        <v>-2.37108294109319</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-15.02130679939837</v>
+        <v>-15.44904103230773</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>8.965403156478306</v>
+        <v>8.59918483776833</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-14.02522824026512</v>
+        <v>-14.67162785543868</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-11.15900640155706</v>
+        <v>-10.374970202925</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>14.10387705045546</v>
+        <v>13.51608805366083</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.676491162427538</v>
+        <v>-6.7143951340741</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.438243693977777</v>
+        <v>3.248870731310781</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>27.2788781353098</v>
+        <v>27.20946808159116</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.84425504612078</v>
+        <v>11.383673114884</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.555516430873228</v>
+        <v>-2.491301920068368</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>19.94689213677927</v>
+        <v>19.82162907249788</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.737413344859804</v>
+        <v>-3.405935205339218</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-1.684930231821416</v>
+        <v>-1.869660866854473</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>22.24635374334423</v>
+        <v>21.42611965721626</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.403878364998651</v>
+        <v>2.016579579417475</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.363048415766561</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.07915507924348122</v>
+        <v>0.07915507924348103</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1369828453344419</v>
@@ -983,7 +983,7 @@
         <v>0.2845893325462701</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.03376862714292692</v>
+        <v>-0.0337686271429271</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.155173013468908</v>
+        <v>-0.1535369837548713</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2535329145709024</v>
+        <v>0.2474252729584964</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.03891301350502251</v>
+        <v>-0.03956825779350781</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2172773747630269</v>
+        <v>-0.2235730378148158</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1288402697384284</v>
+        <v>0.127939142083006</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2032673511760683</v>
+        <v>-0.21135501233365</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1739327568946001</v>
+        <v>-0.1623176171655343</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2187805145851899</v>
+        <v>0.2075416545925032</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1031071106201999</v>
+        <v>-0.1047518451276426</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.06305509136516221</v>
+        <v>0.05864525463562395</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5005201364284829</v>
+        <v>0.5050115552632</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2131863234790467</v>
+        <v>0.2046054363504943</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.03950364162413858</v>
+        <v>-0.04068793852325875</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3186342451602217</v>
+        <v>0.3166325767297511</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.0439845620400726</v>
+        <v>-0.05197201019981694</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.02853894232417943</v>
+        <v>-0.03031541954178825</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3733574988113912</v>
+        <v>0.355602584415663</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.04088895750805493</v>
+        <v>0.03362480368335073</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>16.74499801198407</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-10.48115723133114</v>
+        <v>-10.48115723133115</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.436259847888531</v>
+        <v>-5.594355313136299</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.207900572306258</v>
+        <v>2.378147600882146</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-24.26472876692905</v>
+        <v>-24.29221187007069</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.017420546296353</v>
+        <v>9.582946221392719</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>16.20402108416677</v>
+        <v>16.41724917118305</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-12.16188951058796</v>
+        <v>-11.95337248176775</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.760788862763481</v>
+        <v>4.593542941419818</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>11.93301751579781</v>
+        <v>11.4849530313157</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-15.47226754573158</v>
+        <v>-15.67403920885226</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.31568885375969</v>
+        <v>10.57886148936633</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.37814346861348</v>
+        <v>16.58822588477325</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-8.692386210416156</v>
+        <v>-8.645166164836066</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23.54435632160407</v>
+        <v>24.1632160247502</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>30.92470065025737</v>
+        <v>30.21712123300239</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.869350383530997</v>
+        <v>1.934455219412454</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>15.33869914226679</v>
+        <v>15.0080743393865</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>21.37171825453427</v>
+        <v>21.76284223527116</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-5.207485325637802</v>
+        <v>-5.451509338087596</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.148615258428907</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2613513246921705</v>
+        <v>-0.2613513246921704</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2915660245259207</v>
@@ -1197,7 +1197,7 @@
         <v>0.2818243852713783</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1764016747890057</v>
+        <v>-0.1764016747890058</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.08280256762965499</v>
+        <v>-0.08199029220662253</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.03244566674312493</v>
+        <v>0.03669688231545423</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3675461245279784</v>
+        <v>-0.3686840499439701</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1406204380937839</v>
+        <v>0.1565202832228581</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2654463996446437</v>
+        <v>0.2667292471473789</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2012803716826023</v>
+        <v>-0.1961790408985832</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07704269093266775</v>
+        <v>0.07415286248462011</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1920740076342805</v>
+        <v>0.1867069047328504</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2514745409617424</v>
+        <v>-0.2521002114375617</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1745169257056308</v>
+        <v>0.1829457215055637</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3011896049060486</v>
+        <v>0.2854584558302652</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1502551788623572</v>
+        <v>-0.1471200601340242</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4461521437102212</v>
+        <v>0.4565811077872644</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5883190158453715</v>
+        <v>0.5765171502361408</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03434837067179131</v>
+        <v>0.03644397338138546</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2704415260490513</v>
+        <v>0.261228124322512</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3822825075216081</v>
+        <v>0.3869467393463989</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.09449699359148825</v>
+        <v>-0.09574209665297299</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-25.12236812379162</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-37.99540512436979</v>
+        <v>-37.9954051243698</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-8.153932903781403</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-26.03259039649254</v>
+        <v>-25.33928398430968</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-32.26876731683929</v>
+        <v>-32.08611906497892</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-45.79814496754331</v>
+        <v>-45.51071287777197</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-14.4086841759537</v>
+        <v>-14.26490036411371</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-21.45018100166382</v>
+        <v>-21.50635147845498</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-39.28396574045985</v>
+        <v>-39.22992117745023</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-18.72528734438814</v>
+        <v>-18.62248949507378</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-25.03171812314635</v>
+        <v>-24.86429383432274</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-40.2198911227123</v>
+        <v>-40.20933874484479</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-10.68808391169766</v>
+        <v>-11.51949604925352</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-18.30456939537093</v>
+        <v>-17.70653409936367</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-30.69163834225268</v>
+        <v>-29.57705035618281</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.419994157734606</v>
+        <v>-1.688720615334413</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-7.226156565852378</v>
+        <v>-7.818962079910217</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-25.46487474707956</v>
+        <v>-26.36523358818712</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-8.812700534447714</v>
+        <v>-8.615790800108842</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-14.72174417489259</v>
+        <v>-14.78562080387938</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-30.39303463904894</v>
+        <v>-30.12537586331278</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.2147344044661976</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.4725152939547272</v>
+        <v>-0.4725152939547273</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.1936691254524568</v>
@@ -1411,7 +1411,7 @@
         <v>-0.283235816873142</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.5022050331873463</v>
+        <v>-0.5022050331873462</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3540477157693923</v>
+        <v>-0.3458862779641011</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4375518184327172</v>
+        <v>-0.4403497399846814</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6258199752435523</v>
+        <v>-0.625149270993271</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.202352189997052</v>
+        <v>-0.19999725822131</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2994399635774966</v>
+        <v>-0.2979896693488721</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5459361565019989</v>
+        <v>-0.5423199703453007</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2578331933479175</v>
+        <v>-0.2594641110763178</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3438618366987653</v>
+        <v>-0.3452261793028303</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5566434809663205</v>
+        <v>-0.5579533138937967</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1636906283474294</v>
+        <v>-0.1657429843253841</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2655608552889587</v>
+        <v>-0.2661388999993378</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.4428714714081326</v>
+        <v>-0.430150294480423</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.02131225034600947</v>
+        <v>-0.02827827204917516</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.107734615331378</v>
+        <v>-0.1204062868444694</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3884619135037598</v>
+        <v>-0.393946994279147</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1289578014604753</v>
+        <v>-0.1259403375548127</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2155403933260817</v>
+        <v>-0.219409078707128</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.4405496767802452</v>
+        <v>-0.4439621432880683</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>1.171130297862111</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>6.624688638116217</v>
+        <v>6.624688638116205</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-20.08641246212406</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-35.22661066679672</v>
+        <v>-34.68601742883685</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.2368723853114189</v>
+        <v>-0.7921454085116609</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.687823846596228</v>
+        <v>5.341184804562108</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-21.75960354209258</v>
+        <v>-22.61487380719759</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.043856680425749</v>
+        <v>-5.392118977425378</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.050951587048182</v>
+        <v>1.20976716502711</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-26.1338381906315</v>
+        <v>-25.5087849816003</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.8751803689440457</v>
+        <v>-1.341203395157539</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.520517792734092</v>
+        <v>4.718814813139872</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-17.13053392965536</v>
+        <v>-16.12353484857866</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>14.07681335649079</v>
+        <v>14.14052892563843</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>19.62091078872854</v>
+        <v>19.64239054093847</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-6.828560396429438</v>
+        <v>-7.254093578930382</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.076819257588575</v>
+        <v>7.509012037230131</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.4303596684995</v>
+        <v>11.7574077138045</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-13.87662330801276</v>
+        <v>-13.98721007052904</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.279672588146344</v>
+        <v>8.835411468418531</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>14.68501413763961</v>
+        <v>14.08560548688116</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.0135897890519731</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07687284778760138</v>
+        <v>0.07687284778760126</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.2426686284234208</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4319243285831592</v>
+        <v>-0.4186949045062818</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.003154575141944817</v>
+        <v>-0.009043786607804844</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.06910222401747231</v>
+        <v>0.06562516235627987</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2467948637363122</v>
+        <v>-0.256564023886249</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.05598729658585395</v>
+        <v>-0.05903019734776314</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01134071512729577</v>
+        <v>0.01407788954928207</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.307728722058631</v>
+        <v>-0.3059278884612695</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.009508468219388447</v>
+        <v>-0.01462739346257541</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.06413424069157535</v>
+        <v>0.05621506294390542</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.2293632501418474</v>
+        <v>-0.2110156268167678</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1859385870312424</v>
+        <v>0.1927941154962895</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2657805320716512</v>
+        <v>0.2722664714881182</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.08175339777664146</v>
+        <v>-0.08750587628585861</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.09735748415872529</v>
+        <v>0.09142953975653786</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1507061894502869</v>
+        <v>0.1442582111606014</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1734473305052276</v>
+        <v>-0.1770282608066024</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1177882363588074</v>
+        <v>0.1120744402645292</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1857670422142622</v>
+        <v>0.1780946001481095</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>5.630373950513046</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-30.8003689589457</v>
+        <v>-30.80036895894571</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-16.59798965773668</v>
+        <v>-16.2093786992136</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.4500292981710706</v>
+        <v>0.384995848279343</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-35.74666113968307</v>
+        <v>-35.50317724928188</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.922224534029657</v>
+        <v>-4.817436862055948</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.035059039418742</v>
+        <v>-3.924358552913963</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-38.93675588133995</v>
+        <v>-39.42235769374627</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-7.946370468607257</v>
+        <v>-8.065167158568991</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.4989487916520691</v>
+        <v>0.1356774054435305</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-35.99131695576261</v>
+        <v>-35.8880474391222</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.176795171675725</v>
+        <v>0.7263634564532291</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>15.71337149774159</v>
+        <v>15.49643349235834</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-20.18585693725321</v>
+        <v>-21.73862587575037</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.82180604271144</v>
+        <v>9.830267360599015</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>10.1692378042094</v>
+        <v>11.20255068598858</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-25.16307206581417</v>
+        <v>-25.81869766120212</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.713037817126438</v>
+        <v>3.142373875565291</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>10.84963256139874</v>
+        <v>10.83720313521808</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-25.46872324035511</v>
+        <v>-25.81161031588146</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>0.07871681291561332</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.4306120521270649</v>
+        <v>-0.430612052127065</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2284424985883469</v>
+        <v>-0.222211580992956</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.007281329713440293</v>
+        <v>0.006151191711813818</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4952150339218678</v>
+        <v>-0.4923434097522814</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.06386922479314476</v>
+        <v>-0.06545489923989102</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.05152800858168283</v>
+        <v>-0.05032325173592617</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5092268357768439</v>
+        <v>-0.5130625571812211</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1068045460671213</v>
+        <v>-0.1073555965399057</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.006703103768276871</v>
+        <v>0.002281483456406133</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.484803249357263</v>
+        <v>-0.4859200892792783</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.002028978336480761</v>
+        <v>0.01060624086316775</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2426691953028315</v>
+        <v>0.2399697664808883</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.3065475451988048</v>
+        <v>-0.3315518545883659</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1439563915670797</v>
+        <v>0.1393294020428143</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1462565042960302</v>
+        <v>0.16208209609771</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.3653396864173525</v>
+        <v>-0.3655769565541009</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03913147936425758</v>
+        <v>0.04569074648946598</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1567637993960491</v>
+        <v>0.1573447558058369</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.3684255406429339</v>
+        <v>-0.3718356932298816</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>36.46655416860477</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>14.84833264369672</v>
+        <v>14.84833264369673</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>14.0840929397228</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.763826200530516</v>
+        <v>1.456549148045464</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.0472739094927</v>
+        <v>23.98599135317518</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4.26608456875276</v>
+        <v>4.36944662759918</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>15.22688166626205</v>
+        <v>14.58435020427983</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>31.85202697146645</v>
+        <v>31.6486109209822</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>9.741943040118521</v>
+        <v>9.399298656013675</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>10.03577234757805</v>
+        <v>10.09018327695021</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>29.46085289695766</v>
+        <v>29.60344147672024</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>8.816454410308436</v>
+        <v>8.936984210966811</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>13.17735480245985</v>
+        <v>12.90439394263032</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>34.69593162048773</v>
+        <v>34.44891974936405</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>16.56809565395415</v>
+        <v>15.91751723433172</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>25.62130825796816</v>
+        <v>25.77036338008044</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>41.11996195890883</v>
+        <v>41.26767043584996</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>20.41572701970966</v>
+        <v>19.80822093045999</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>17.88626433490908</v>
+        <v>17.83068406892826</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>36.24042550941468</v>
+        <v>36.70733799146311</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>16.33042316892263</v>
+        <v>16.55178645940275</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.7435849183959807</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3027704829507898</v>
+        <v>0.3027704829507901</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2778300417825094</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.03264504320345243</v>
+        <v>0.02716338559472614</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.4341244963358477</v>
+        <v>0.4261505482394056</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.07382985796810423</v>
+        <v>0.08041038329543933</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2948295583018746</v>
+        <v>0.2708267686505093</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.6112584758874869</v>
+        <v>0.5989210120051485</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1851864871068369</v>
+        <v>0.1780536127226096</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.189244825024539</v>
+        <v>0.1904113192379839</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.5583148544285359</v>
+        <v>0.5541370938199587</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1666816056246187</v>
+        <v>0.1699720649382034</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2684519198705103</v>
+        <v>0.2601331482802682</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7131968710730442</v>
+        <v>0.7070109495178774</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3321837782172891</v>
+        <v>0.3240983635149231</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5609831234668941</v>
+        <v>0.5544423934076267</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.9134607317227538</v>
+        <v>0.9039811970017668</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4407058986501274</v>
+        <v>0.4304140571954714</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3675125566272499</v>
+        <v>0.3675440778922047</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.7473195779183933</v>
+        <v>0.7587808184843506</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.3378566834130107</v>
+        <v>0.3416607148041901</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>12.25184031374505</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>4.60464439914513</v>
+        <v>4.604644399145141</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>2.292262682738633</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>5.646178053866228</v>
+        <v>5.31182160805424</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>8.728703294947159</v>
+        <v>8.564561648910431</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.5144805168628317</v>
+        <v>0.3649221697623981</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.9132892631387091</v>
+        <v>-1.204978334346971</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>4.359649484619227</v>
+        <v>4.134310183250457</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-2.307081917461684</v>
+        <v>-2.522766987515073</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>3.325231263846934</v>
+        <v>3.285355000931939</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>7.478359639813091</v>
+        <v>7.314108814182093</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.2437771362885369</v>
+        <v>0.2149455513118414</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>13.09786790162412</v>
+        <v>12.8910047479872</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>15.60842887555133</v>
+        <v>15.51114944097941</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>8.587782452394354</v>
+        <v>8.155279994730087</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.934849425635818</v>
+        <v>5.641435407057689</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>10.04568771908065</v>
+        <v>10.24958524766045</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>4.015140133347731</v>
+        <v>4.302233261897157</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>8.264935553903074</v>
+        <v>8.096779286111738</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>12.17150857694629</v>
+        <v>11.93580172249797</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>5.507157568609067</v>
+        <v>5.228488398564854</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.1531065525001026</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.05754247618221835</v>
+        <v>0.05754247618221849</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.02657295897293854</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.0689465297091482</v>
+        <v>0.06572045444444348</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1066545026095183</v>
+        <v>0.1037798819961083</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.005050574218427713</v>
+        <v>0.004549894509591665</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.01032985484465281</v>
+        <v>-0.01361077148917334</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.04985379279920124</v>
+        <v>0.04631463697138626</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.02647465360371479</v>
+        <v>-0.02850467061099069</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03951284065633591</v>
+        <v>0.0388269216921796</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.08820842607625655</v>
+        <v>0.08596777512291724</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.00291160494646758</v>
+        <v>0.002738550161943517</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1689860165047447</v>
+        <v>0.1664767927949086</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2025642955447909</v>
+        <v>0.2000874719430398</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1093881540883486</v>
+        <v>0.1047102559467535</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.06964182139528313</v>
+        <v>0.06729526584778965</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1191856584151552</v>
+        <v>0.1214540856337075</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.04810928735425427</v>
+        <v>0.0509407637693169</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1014904456853335</v>
+        <v>0.09923913916823471</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1488891844186933</v>
+        <v>0.1457926898514267</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.06718975953783282</v>
+        <v>0.06492632937164193</v>
       </c>
     </row>
     <row r="52">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-3.930734560540388</v>
+        <v>-3.897019351993991</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>8.907794026909242</v>
+        <v>9.01404383759829</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-7.979794526592039</v>
+        <v>-8.073558254649287</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.1949651113397713</v>
+        <v>0.3463161984312292</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>9.573944076833195</v>
+        <v>9.430238321696701</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-8.996860262533568</v>
+        <v>-8.901096419214143</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-1.191643493503145</v>
+        <v>-1.037985617678006</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>9.837965980334364</v>
+        <v>9.684324154493362</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-7.968050552101142</v>
+        <v>-7.805043202361778</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.8606182257586711</v>
+        <v>0.8788386186780563</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>13.35661670305916</v>
+        <v>13.43204544587697</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-3.111154505290381</v>
+        <v>-3.010087722755606</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4.556359740241855</v>
+        <v>4.628423864136214</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>13.60141303338563</v>
+        <v>13.52617074209966</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-4.73369372147045</v>
+        <v>-4.764323929716949</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>2.131289097504679</v>
+        <v>2.143640002716755</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>12.84059042017081</v>
+        <v>12.62225507358665</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-4.522537784335727</v>
+        <v>-4.576484264225888</v>
       </c>
     </row>
     <row r="55">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.05683740937345626</v>
+        <v>-0.05670201413608784</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.1279381170184775</v>
+        <v>0.129664895094161</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.1154652942117462</v>
+        <v>-0.1167500505509168</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.002701030096722876</v>
+        <v>0.004860020895358908</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1332370632292914</v>
+        <v>0.1298612083905955</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.1250555205067602</v>
+        <v>-0.1239381134202546</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.01701591025932398</v>
+        <v>-0.01475998423762618</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.1407001531814254</v>
+        <v>0.1373471055748382</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.1128505249907149</v>
+        <v>-0.1112250742634057</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.01309786628452442</v>
+        <v>0.01320057945469277</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.2000390162849909</v>
+        <v>0.2002211572668504</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.04651801388099791</v>
+        <v>-0.04515742590701512</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.06531138413887577</v>
+        <v>0.06669301300727158</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1945238534021292</v>
+        <v>0.1938896633692267</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.06854435619713073</v>
+        <v>-0.06816194220628935</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.03108423749035621</v>
+        <v>0.03133276413900397</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.1882012475877057</v>
+        <v>0.183887819615379</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.06588035537826466</v>
+        <v>-0.06677091283693361</v>
       </c>
     </row>
     <row r="58">
